--- a/sv.xlsx
+++ b/sv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Major\Toto-Smart-Attendance-System\Toto_Smart_Attendance_System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gayyur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F03A701-0421-4C05-AB9A-88F02783B363}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77F4C854-F797-49DC-9C17-31E06C52460C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -43,10 +43,73 @@
     <t>0827CS151088</t>
   </si>
   <si>
+    <t>0827CS151066</t>
+  </si>
+  <si>
     <t>https://drive.google.com/file/d/1k9WpTnHyEojMPNlvGzx-i-lQ8KWsysZ4/view</t>
   </si>
   <si>
+    <t>Rubal</t>
+  </si>
+  <si>
+    <t>Dipesh</t>
+  </si>
+  <si>
+    <t>0827CS151089</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UZJhoX9V7_EcteK8wYy9Lyb8DGHb-9B7/view</t>
+  </si>
+  <si>
     <t>https://drive.google.com/file/d/1ktbeT2JaWmyeazv33AyTweZWYpNCAGCH/view</t>
+  </si>
+  <si>
+    <t>Kamran</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qn3yLRRPPIy3Mb6DmhZbL320Idofg-oN/view</t>
+  </si>
+  <si>
+    <t>Krishnapal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19QH0FlsoZjzeq2dWXDJFq1nKgsRt0qHV/view</t>
+  </si>
+  <si>
+    <t>Laksh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sfOIjoWMRiNuoEtxmM_bl7usi-rGVEjv/view</t>
+  </si>
+  <si>
+    <t>0827CS151118</t>
+  </si>
+  <si>
+    <t>0827CS151100</t>
+  </si>
+  <si>
+    <t>0827CS151106</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BSpHZwPLDsKdDSZ6tU7yXrFl4IVTxg8I/view</t>
+  </si>
+  <si>
+    <t>Neeraj</t>
+  </si>
+  <si>
+    <t>0827CS151126</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12nlSZ-pVsqEi9CWARmLMDlfHtJu9zYZr/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QQseZYTF3ZCiNK7L1NGiVqOArq_qJEB7/view</t>
+  </si>
+  <si>
+    <t>Mayank</t>
+  </si>
+  <si>
+    <t>0827CS151090</t>
   </si>
 </sst>
 </file>
@@ -419,18 +482,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -449,10 +512,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -460,23 +523,97 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{DDE1FB6A-878E-4138-9394-B129152DB903}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{DDE1FB6A-878E-4138-9394-B129152DB903}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{1F5EC7AC-C524-46FA-AC97-F0B5815EA2F9}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{521C8BAE-A84C-40D5-B947-AE955DB37BE9}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{43862AD7-E83E-4C7B-A431-CE19649781C2}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{E71FF8EB-E564-4019-8609-0F4D1635758A}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{D043C414-1E78-4A71-BD8A-F8FE28568A44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
